--- a/Dataset/Folds/Fold_1/Excel/49.xlsx
+++ b/Dataset/Folds/Fold_1/Excel/49.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4576" uniqueCount="707">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5176" uniqueCount="791">
   <si>
     <t>Doi</t>
   </si>
@@ -2337,6 +2337,338 @@
   </si>
   <si>
     <t>[Johannes Chi-Yun%Ching%NULL%1,                             Kelvin Yuen Kwong%Chan%NULL%1,                             Eric Hing Leung%Lee%NULL%1,                             Mei-Shu%Xu%NULL%0,                             Campbell Kam Po%Ting%NULL%1,                             Thomas M. K.%So%NULL%1,                             Pak C.%Sham%NULL%1,                             Gabriel M.%Leung%NULL%0,                             Joseph S. M.%Peiris%NULL%1,                             Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                              Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                              Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                              Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                              Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                              Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                              Pei-Jan%Chen%g8640@ms13.hinet.net%1,                              Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                              Ken Hong%Lim%khlim@seed.net.tw%1,                              Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                              Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                              Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                              Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                              Nelson L S%Tang%NULL%1,                              David S C%Hui%NULL%1,                              Grace T Y%Chung%NULL%1,                              Stephen S C%Chim%NULL%1,                              K C Allen%Chan%NULL%1,                              Ying-man%Sung%NULL%1,                              Louis Y S%Chan%NULL%1,                              Yu-kwan%Tong%NULL%1,                              Wing-shan%Lee%NULL%1,                              Paul K S%Chan%NULL%1,                              Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                              Naoto%Keicho%NULL%3,                              Tran%Quy%NULL%4,                              Nguyen Chi%Phi%NULL%4,                              Hoang Thuy%Long%NULL%4,                              Le Dang%Ha%NULL%4,                              Vo Van%Ban%NULL%4,                              Jun%Ohashi%NULL%1,                              Minako%Hijikata%NULL%4,                              Ikumi%Matsushita%NULL%3,                              Akihiko%Kawana%NULL%1,                              Hideki%Yanai%NULL%3,                              Teruo%Kirikae%NULL%3,                              Tadatoshi%Kuratsuji%NULL%3,                              Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                              Kin-Mang%Lau%NULL%1,                              Libby%Li%NULL%1,                              Suk-Hang%Cheng%NULL%1,                              Wing Y.%Chan%NULL%1,                              Pak K.%Hui%NULL%1,                              Benny%Zee%NULL%1,                              Chi-Bon%Leung%NULL%1,                              Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                              Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                              David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                              Grace TY%Chung%gracechung@cuhk.edu.hk%1,                              Alan KL%Wu%alanklwu@yahoo.com%1,                              Stephen SC%Chim%sschim@cuhk.edu.hk%1,                              Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                              Nelson%Lee%leelsn@yahoo.com%1,                              KW%Choi%kwchoi12@netvigator.com%1,                              YM%Sung%mandysung@cuhk.edu.hk%1,                              Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                              YK%Tong%yktong@cuhk.edu.hk%1,                              ST%Lai%laist@ha.org.hk%1,                              WC%Yu%yuwc@ha.org.hk%1,                              Owen%Tsang%tyotsang@hotmail.com%1,                              YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                              Minako%Hijikata%NULL%0,                              Satoru%Itoyama%NULL%2,                              Tran%Quy%NULL%0,                              Nguyen Chi%Phi%NULL%0,                              Hoang Thuy%Long%NULL%0,                              Le Dang%Ha%NULL%0,                              Vo Van%Ban%NULL%0,                              Ikumi%Matsushita%NULL%0,                              Hideki%Yanai%NULL%0,                              Fumiko%Kirikae%NULL%2,                              Teruo%Kirikae%NULL%0,                              Tadatoshi%Kuratsuji%NULL%0,                              Takehiko%Sasazuki%NULL%0,                              Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                              Kwok Hung%Chan%NULL%1,                              Helen K. W.%Law%NULL%1,                              Gloria H. W.%Tso%NULL%1,                              Eric K. P.%Kong%NULL%1,                              Wilfred H. S.%Wong%NULL%1,                              Yuk Fai%To%NULL%1,                              Raymond W. H.%Yung%NULL%1,                              Eudora Y.%Chow%NULL%1,                              Ka Leung%Au%NULL%2,                              Eric Y. T.%Chan%NULL%2,                              Wilina%Lim%NULL%3,                              Jens C.%Jensenius%NULL%1,                              Malcolm W.%Turner%NULL%1,                              J. S. Malik%Peiris%NULL%1,                              Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                              Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                              Minako%Hijikata%NULL%0,                              Tran%Quy%NULL%0,                              Nguyen Chi%Phi%NULL%0,                              Hoang Thuy%Long%NULL%0,                              Le Dang%Ha%NULL%0,                              Vo Van%Ban%NULL%0,                              Ikumi%Matsushita%NULL%0,                              Hideki%Yanai%NULL%0,                              Fumiko%Kirikae%NULL%0,                              Teruo%Kirikae%NULL%0,                              Tadatoshi%Kuratsuji%NULL%0,                              Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                              J.%Tanner%NULL%1,                              P. K. S.%Chan%NULL%1,                              S.%Biffin%NULL%1,                              W. B.%Dyer%NULL%1,                              A. F.%Geczy%NULL%1,                              J. W.%Tang%NULL%1,                              D. S. C.%Hui%NULL%1,                              J. J. Y.%Sung%NULL%1,                              J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                              Gangqiao%Zhou%NULL%2,                              Lianteng%Zhi%NULL%1,                              Hao%Yang%NULL%1,                              Yun%Zhai%NULL%2,                              Xiaojia%Dong%NULL%1,                              Xiumei%Zhang%NULL%1,                              Xue%Gao%NULL%1,                              Yunping%Zhu%NULL%1,                              Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                              Kelvin Y K%Chan%NULL%1,                              Yongxiong%Chen%NULL%1,                              Leo L M%Poon%NULL%1,                              Annie N Y%Cheung%NULL%1,                              Bojian%Zheng%NULL%1,                              Kwok-Hung%Chan%NULL%1,                              William%Mak%NULL%1,                              Hextan Y S%Ngan%NULL%1,                              Xiaoning%Xu%NULL%1,                              Gavin%Screaton%NULL%1,                              Paul K H%Tam%NULL%1,                              Jonathan M%Austyn%NULL%1,                              Li-Chong%Chan%NULL%2,                              Shea-Ping%Yip%NULL%2,                              Malik%Peiris%NULL%2,                              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                              Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                              WK Eddie%Ip%WIP@partners.org%1,                              Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                              Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                              Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                              Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                              Raymond WH%Yung%rwhyung@ha.org.hk%2,                              Eudora Y%Chow%chowe@ha.org.hk%2,                              KL%Au%klau@ha.org.hk%1,                              Eric YT%Chan%eytchan@ha.org.hk%2,                              Wilina%Lim%wllim@pacific.net.hk%0,                              JS Malik%Peiris%malik@hkucc.hku.hk%2,                              Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                              Dan%Feng%fddd@263.net%1,                              Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                              Hongwei%Wang%whw7809@yahoo.com.cn%1,                              Arnaud%Fontanet%fontanet@pasteur.fr%1,                              Panhe%Zhang%juntianz@yahoo.com.cn%1,                              Sabine%Plancoulaine%plancoulaine@necker.fr%1,                              Fang%Tang%tf4065@sina.com%1,                              Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                              Hong%Yang%anni_yang@yahoo.com%1,                              Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                              Jan H%Richardus%j.richardus@erasmusmc.nl%1,                              J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                              Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                              Jyh-Yuan%Yang%NULL%1,                              Jih-Hui%Lin%NULL%1,                              Cathy S. J.%Fann%NULL%1,                              Valeriy%Osyetrov%NULL%1,                              Chwan-Chuen%King%NULL%1,                              Yi-Ming Arthur%Chen%NULL%1,                              Hsiao-Ling%Chang%NULL%1,                              Hung-Wei%Kuo%NULL%1,                              Fong%Liao%NULL%1,                              Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                              Johannes C. Y.%Ching%NULL%1,                              M. S.%Xu%NULL%1,                              Annie N. Y.%Cheung%NULL%1,                              Shea-Ping%Yip%NULL%0,                              Loretta Y. C.%Yam%NULL%1,                              Sik-To%Lai%NULL%2,                              Chung-Ming%Chu%NULL%2,                              Andrew T. Y.%Wong%NULL%1,                              You-Qiang%Song%NULL%1,                              Fang-Ping%Huang%NULL%1,                              Wei%Liu%NULL%1,                              P. H.%Chung%NULL%1,                              G. M.%Leung%NULL%1,                              Eudora Y. D.%Chow%NULL%1,                              Eric Y. T.%Chan%NULL%0,                              Jane C. K.%Chan%NULL%1,                              Hextan%Ngan%NULL%1,                              Paul%Tam%NULL%1,                              Li-Chong%Chan%NULL%0,                              Pak%Sham%NULL%1,                              Vera S. F.%Chan%NULL%1,                              Malik%Peiris%NULL%0,                              Steve C. L.%Lin%NULL%1,                              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                              Gangqiao%Zhou%zhougq@chgb.org.cn%0,                              Wai Po%Chong%h9820905@graduate.hku.hk%1,                              Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                              Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                              Hongxing%Zhang%zhanghx08@126.com%1,                              Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                              Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                              Yun%Zhai%zhaiyun077@tom.com%0,                              Raymond WH%Yung%rwhyung@ha.org.hk%0,                              Eudora Y%Chow%chowe@ha.org.hk%0,                              Ka Leung%Au%klau@ha.org.hk%0,                              Eric YT%Chan%eytchan@ha.org.hk%0,                              Wilina%Lim%wllim@pacific.net.hk%0,                              JS Malik%Peiris%malik@hkucc.hku.hk%0,                              Fuchu%He%hefc@nic.bmi.ac.cn%0,                              Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                              Maoti%Wei%weimaoti@yahoo.com.cn%1,                              Yi%Han%halanhan2001sh@163.com%1,                              Keju%Zhang%sinong77@sina.com%1,                              Li%He%wujinhl@163.com%1,                              Zhen%Yang%yzdtchina@yahoo.com.cn%1,                              Bing%Su%tjsubin553@sina.com%1,                              Zhilun%Zhang%zzl718@sina.com.cn%1,                              Yilan%Hu%yougu@yahoo.com.cn%1,                              Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                              Satoru%Itoyama%NULL%0,                              Koichi%Kashiwase%NULL%1,                              Nguyen Chi%Phi%NULL%0,                              Hoang Thuy%Long%NULL%0,                              Le Dang%Ha%NULL%0,                              Vo Van%Ban%NULL%0,                              Bach Khanh%Hoa%NULL%1,                              Nguyen Thi Le%Hang%NULL%1,                              Minako%Hijikata%NULL%0,                              Shinsaku%Sakurada%NULL%1,                              Masahiro%Satake%NULL%1,                              Katsushi%Tokunaga%NULL%1,                              Takehiko%Sasazuki%NULL%0,                              Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                              Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                              Yuling%Shi%sane222@163.com%1,                              Ping%Li%liping@nic.bmi.ac.cn%1,                              Chuanxuan%Liu%renew7306_cn@sina.com%1,                              Qingjun%Ma%maqingjun@sina.com%1,                              Ruifu%Yang%zhangf@big.ac.cn%1,                              Xiaoyi%Wang%happybettylx@hotmail.com%1,                              Lina%zhu%luckina@sina.com%1,                              Xiao%Yang%gaowei@sina.com%1,                              Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                              Mei-Shu%Xu%NULL%2,                              Johannes Chi Yun%Ching%NULL%1,                              Thomas Man Kit%So%NULL%1,                              Sik-To%Lai%NULL%0,                              Chung-Ming%Chu%NULL%0,                              Loretta Y.C.%Yam%NULL%1,                              Andrew T.Y.%Wong%NULL%1,                              Pui Hong%Chung%NULL%1,                              Vera Sau Fong%Chan%NULL%1,                              Chen Lung Steve%Lin%NULL%1,                              Pak Chung%Sham%NULL%1,                              Gabriel M.%Leung%NULL%2,                              Joseph S.M.%Peiris%NULL%1,                              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                              Kelvin Yuen Kwong%Chan%NULL%1,                              Eric Hing Leung%Lee%NULL%1,                              Mei-Shu%Xu%NULL%0,                              Campbell Kam Po%Ting%NULL%1,                              Thomas M. K.%So%NULL%1,                              Pak C.%Sham%NULL%1,                              Gabriel M.%Leung%NULL%0,                              Joseph S. M.%Peiris%NULL%1,                              Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%1,                               Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1,                               Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1,                               Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1,                               Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1,                               Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1,                               Pei-Jan%Chen%g8640@ms13.hinet.net%1,                               Ying-Wen%Su%yingwen_su@yahoo.com.tw%1,                               Ken Hong%Lim%khlim@seed.net.tw%1,                               Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1,                               Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1,                               Ruey-Shiung%Lin%rueyshiung@yahoo.com%1,                               Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%1,                               Nelson L S%Tang%NULL%1,                               David S C%Hui%NULL%1,                               Grace T Y%Chung%NULL%1,                               Stephen S C%Chim%NULL%1,                               K C Allen%Chan%NULL%1,                               Ying-man%Sung%NULL%1,                               Louis Y S%Chan%NULL%1,                               Yu-kwan%Tong%NULL%1,                               Wing-shan%Lee%NULL%1,                               Paul K S%Chan%NULL%1,                               Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%2,                               Naoto%Keicho%NULL%3,                               Tran%Quy%NULL%4,                               Nguyen Chi%Phi%NULL%4,                               Hoang Thuy%Long%NULL%4,                               Le Dang%Ha%NULL%4,                               Vo Van%Ban%NULL%4,                               Jun%Ohashi%NULL%1,                               Minako%Hijikata%NULL%4,                               Ikumi%Matsushita%NULL%3,                               Akihiko%Kawana%NULL%1,                               Hideki%Yanai%NULL%3,                               Teruo%Kirikae%NULL%3,                               Tadatoshi%Kuratsuji%NULL%3,                               Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%1,                               Kin-Mang%Lau%NULL%1,                               Libby%Li%NULL%1,                               Suk-Hang%Cheng%NULL%1,                               Wing Y.%Chan%NULL%1,                               Pak K.%Hui%NULL%1,                               Benny%Zee%NULL%1,                               Chi-Bon%Leung%NULL%1,                               Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%1,                               Nelson LS%Tang%nelsontang@cuhk.edu.hk%1,                               David SC%Hui%b200945@mailserv.cuhk.edu.hk%1,                               Grace TY%Chung%gracechung@cuhk.edu.hk%1,                               Alan KL%Wu%alanklwu@yahoo.com%1,                               Stephen SC%Chim%sschim@cuhk.edu.hk%1,                               Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1,                               Nelson%Lee%leelsn@yahoo.com%1,                               KW%Choi%kwchoi12@netvigator.com%1,                               YM%Sung%mandysung@cuhk.edu.hk%1,                               Paul KS%Chan%paulkschan@cuhk.edu.hk%1,                               YK%Tong%yktong@cuhk.edu.hk%1,                               ST%Lai%laist@ha.org.hk%1,                               WC%Yu%yuwc@ha.org.hk%1,                               Owen%Tsang%tyotsang@hotmail.com%1,                               YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%1,                               Minako%Hijikata%NULL%0,                               Satoru%Itoyama%NULL%2,                               Tran%Quy%NULL%0,                               Nguyen Chi%Phi%NULL%0,                               Hoang Thuy%Long%NULL%0,                               Le Dang%Ha%NULL%0,                               Vo Van%Ban%NULL%0,                               Ikumi%Matsushita%NULL%0,                               Hideki%Yanai%NULL%0,                               Fumiko%Kirikae%NULL%2,                               Teruo%Kirikae%NULL%0,                               Tadatoshi%Kuratsuji%NULL%0,                               Takehiko%Sasazuki%NULL%0,                               Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%1,                               Kwok Hung%Chan%NULL%1,                               Helen K. W.%Law%NULL%1,                               Gloria H. W.%Tso%NULL%1,                               Eric K. P.%Kong%NULL%1,                               Wilfred H. S.%Wong%NULL%1,                               Yuk Fai%To%NULL%1,                               Raymond W. H.%Yung%NULL%1,                               Eudora Y.%Chow%NULL%1,                               Ka Leung%Au%NULL%2,                               Eric Y. T.%Chan%NULL%2,                               Wilina%Lim%NULL%3,                               Jens C.%Jensenius%NULL%1,                               Malcolm W.%Turner%NULL%1,                               J. S. Malik%Peiris%NULL%1,                               Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0,                               Naoto%Keicho%nkeicho-tky@umin.ac.jp%0,                               Minako%Hijikata%NULL%0,                               Tran%Quy%NULL%0,                               Nguyen Chi%Phi%NULL%0,                               Hoang Thuy%Long%NULL%0,                               Le Dang%Ha%NULL%0,                               Vo Van%Ban%NULL%0,                               Ikumi%Matsushita%NULL%0,                               Hideki%Yanai%NULL%0,                               Fumiko%Kirikae%NULL%0,                               Teruo%Kirikae%NULL%0,                               Tadatoshi%Kuratsuji%NULL%0,                               Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%1,                               J.%Tanner%NULL%1,                               P. K. S.%Chan%NULL%1,                               S.%Biffin%NULL%1,                               W. B.%Dyer%NULL%1,                               A. F.%Geczy%NULL%1,                               J. W.%Tang%NULL%1,                               D. S. C.%Hui%NULL%1,                               J. J. Y.%Sung%NULL%1,                               J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%1,                               Gangqiao%Zhou%NULL%2,                               Lianteng%Zhi%NULL%1,                               Hao%Yang%NULL%1,                               Yun%Zhai%NULL%2,                               Xiaojia%Dong%NULL%1,                               Xiumei%Zhang%NULL%1,                               Xue%Gao%NULL%1,                               Yunping%Zhu%NULL%1,                               Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%1,                               Kelvin Y K%Chan%NULL%1,                               Yongxiong%Chen%NULL%1,                               Leo L M%Poon%NULL%1,                               Annie N Y%Cheung%NULL%1,                               Bojian%Zheng%NULL%1,                               Kwok-Hung%Chan%NULL%1,                               William%Mak%NULL%1,                               Hextan Y S%Ngan%NULL%1,                               Xiaoning%Xu%NULL%1,                               Gavin%Screaton%NULL%1,                               Paul K H%Tam%NULL%1,                               Jonathan M%Austyn%NULL%1,                               Li-Chong%Chan%NULL%2,                               Shea-Ping%Yip%NULL%2,                               Malik%Peiris%NULL%2,                               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4,                               Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%1,                               WK Eddie%Ip%WIP@partners.org%1,                               Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1,                               Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                               Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2,                               Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2,                               Raymond WH%Yung%rwhyung@ha.org.hk%2,                               Eudora Y%Chow%chowe@ha.org.hk%2,                               KL%Au%klau@ha.org.hk%1,                               Eric YT%Chan%eytchan@ha.org.hk%2,                               Wilina%Lim%wllim@pacific.net.hk%0,                               JS Malik%Peiris%malik@hkucc.hku.hk%2,                               Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%1,                               Dan%Feng%fddd@263.net%1,                               Sake J%de Vlas%s.devlas@erasmusmc.nl%1,                               Hongwei%Wang%whw7809@yahoo.com.cn%1,                               Arnaud%Fontanet%fontanet@pasteur.fr%1,                               Panhe%Zhang%juntianz@yahoo.com.cn%1,                               Sabine%Plancoulaine%plancoulaine@necker.fr%1,                               Fang%Tang%tf4065@sina.com%1,                               Lin%Zhan%zhanzhan_30@yahoo.com.cn%1,                               Hong%Yang%anni_yang@yahoo.com%1,                               Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1,                               Jan H%Richardus%j.richardus@erasmusmc.nl%1,                               J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1,                               Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%1,                               Jyh-Yuan%Yang%NULL%1,                               Jih-Hui%Lin%NULL%1,                               Cathy S. J.%Fann%NULL%1,                               Valeriy%Osyetrov%NULL%1,                               Chwan-Chuen%King%NULL%1,                               Yi-Ming Arthur%Chen%NULL%1,                               Hsiao-Ling%Chang%NULL%1,                               Hung-Wei%Kuo%NULL%1,                               Fong%Liao%NULL%1,                               Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%1,                               Johannes C. Y.%Ching%NULL%1,                               M. S.%Xu%NULL%1,                               Annie N. Y.%Cheung%NULL%1,                               Shea-Ping%Yip%NULL%0,                               Loretta Y. C.%Yam%NULL%1,                               Sik-To%Lai%NULL%2,                               Chung-Ming%Chu%NULL%2,                               Andrew T. Y.%Wong%NULL%1,                               You-Qiang%Song%NULL%1,                               Fang-Ping%Huang%NULL%1,                               Wei%Liu%NULL%1,                               P. H.%Chung%NULL%1,                               G. M.%Leung%NULL%1,                               Eudora Y. D.%Chow%NULL%1,                               Eric Y. T.%Chan%NULL%0,                               Jane C. K.%Chan%NULL%1,                               Hextan%Ngan%NULL%1,                               Paul%Tam%NULL%1,                               Li-Chong%Chan%NULL%0,                               Pak%Sham%NULL%1,                               Vera S. F.%Chan%NULL%1,                               Malik%Peiris%NULL%0,                               Steve C. L.%Lin%NULL%1,                               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%1,                               Gangqiao%Zhou%zhougq@chgb.org.cn%0,                               Wai Po%Chong%h9820905@graduate.hku.hk%1,                               Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1,                               Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0,                               Hongxing%Zhang%zhanghx08@126.com%1,                               Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0,                               Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1,                               Yun%Zhai%zhaiyun077@tom.com%0,                               Raymond WH%Yung%rwhyung@ha.org.hk%0,                               Eudora Y%Chow%chowe@ha.org.hk%0,                               Ka Leung%Au%klau@ha.org.hk%0,                               Eric YT%Chan%eytchan@ha.org.hk%0,                               Wilina%Lim%wllim@pacific.net.hk%0,                               JS Malik%Peiris%malik@hkucc.hku.hk%0,                               Fuchu%He%hefc@nic.bmi.ac.cn%0,                               Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%1,                               Maoti%Wei%weimaoti@yahoo.com.cn%1,                               Yi%Han%halanhan2001sh@163.com%1,                               Keju%Zhang%sinong77@sina.com%1,                               Li%He%wujinhl@163.com%1,                               Zhen%Yang%yzdtchina@yahoo.com.cn%1,                               Bing%Su%tjsubin553@sina.com%1,                               Zhilun%Zhang%zzl718@sina.com.cn%1,                               Yilan%Hu%yougu@yahoo.com.cn%1,                               Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%1,                               Satoru%Itoyama%NULL%0,                               Koichi%Kashiwase%NULL%1,                               Nguyen Chi%Phi%NULL%0,                               Hoang Thuy%Long%NULL%0,                               Le Dang%Ha%NULL%0,                               Vo Van%Ban%NULL%0,                               Bach Khanh%Hoa%NULL%1,                               Nguyen Thi Le%Hang%NULL%1,                               Minako%Hijikata%NULL%0,                               Shinsaku%Sakurada%NULL%1,                               Masahiro%Satake%NULL%1,                               Katsushi%Tokunaga%NULL%1,                               Takehiko%Sasazuki%NULL%0,                               Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%1,                               Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1,                               Yuling%Shi%sane222@163.com%1,                               Ping%Li%liping@nic.bmi.ac.cn%1,                               Chuanxuan%Liu%renew7306_cn@sina.com%1,                               Qingjun%Ma%maqingjun@sina.com%1,                               Ruifu%Yang%zhangf@big.ac.cn%1,                               Xiaoyi%Wang%happybettylx@hotmail.com%1,                               Lina%zhu%luckina@sina.com%1,                               Xiao%Yang%gaowei@sina.com%1,                               Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%1,                               Mei-Shu%Xu%NULL%2,                               Johannes Chi Yun%Ching%NULL%1,                               Thomas Man Kit%So%NULL%1,                               Sik-To%Lai%NULL%0,                               Chung-Ming%Chu%NULL%0,                               Loretta Y.C.%Yam%NULL%1,                               Andrew T.Y.%Wong%NULL%1,                               Pui Hong%Chung%NULL%1,                               Vera Sau Fong%Chan%NULL%1,                               Chen Lung Steve%Lin%NULL%1,                               Pak Chung%Sham%NULL%1,                               Gabriel M.%Leung%NULL%2,                               Joseph S.M.%Peiris%NULL%1,                               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%1,                               Kelvin Yuen Kwong%Chan%NULL%1,                               Eric Hing Leung%Lee%NULL%1,                               Mei-Shu%Xu%NULL%0,                               Campbell Kam Po%Ting%NULL%1,                               Thomas M. K.%So%NULL%1,                               Pak C.%Sham%NULL%1,                               Gabriel M.%Leung%NULL%0,                               Joseph S. M.%Peiris%NULL%1,                               Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Marie%Lin%marilin@ms2.mmh.org.tw%0, Hsiang-Kuang%Tseng%drtseng@anet.net.tw%1, Jean A%Trejaut%jtrejaut@ms1.mmh.org.tw%1, Hui-Lin%Lee%leehl@ms1.mmh.org.tw%1, Jun-Hun%Loo%junhun@ms1.mmh.org.tw%1, Chen-Chung%Chu%chucc@ms1.mmh.org.tw%1, Pei-Jan%Chen%g8640@ms13.hinet.net%1, Ying-Wen%Su%yingwen_su@yahoo.com.tw%1, Ken Hong%Lim%khlim@seed.net.tw%1, Zen-Uong%Tsai%tsaizu@ms1.mmh.org.tw%1, Ruey-Yi%Lin%lin-8424@mail.hoping.gov.tw%1, Ruey-Shiung%Lin%rueyshiung@yahoo.com%1, Chun-Hsiung%Huang%chhuang@ms2.mmh.org.tw%1]</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>[Rossa W K%Chiu%NULL%0, Nelson L S%Tang%NULL%1, David S C%Hui%NULL%1, Grace T Y%Chung%NULL%1, Stephen S C%Chim%NULL%1, K C Allen%Chan%NULL%1, Ying-man%Sung%NULL%1, Louis Y S%Chan%NULL%1, Yu-kwan%Tong%NULL%1, Wing-shan%Lee%NULL%1, Paul K S%Chan%NULL%1, Y M Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t>Oxford University Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have hypothesized that genetic predisposition influences the progression of SARS.
+ Angiotensin converting enzyme (ACE1) insertion/deletion (I/D) polymorphism was previously reported to show association with the adult respiratory distress syndrome, which is also thought to play a key role in damaging the lung tissues in SARS cases.
+ This time, the polymorphism was genotyped in 44 Vietnamese SARS cases, with 103 healthy controls who had had a contact with the SARS patients and 50 controls without any contact history.
+ SARS cases were divided into either non-hypoxemic or hypoxemic groups.
+ Despite the small sample size, the frequency of the D allele was significantly higher in the hypoxemic group than in the non-hypoxemic group (p = 0.013), whereas there was no significant difference between the SARS cases and controls, irrespective of a contact history.
+ ACE1 might be one of the candidate genes that influence the progression of pneumonia in SARS.
+</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0, Naoto%Keicho%NULL%0, Tran%Quy%NULL%4, Nguyen Chi%Phi%NULL%4, Hoang Thuy%Long%NULL%4, Le Dang%Ha%NULL%4, Vo Van%Ban%NULL%4, Jun%Ohashi%NULL%1, Minako%Hijikata%NULL%4, Ikumi%Matsushita%NULL%3, Akihiko%Kawana%NULL%1, Hideki%Yanai%NULL%3, Teruo%Kirikae%NULL%3, Tadatoshi%Kuratsuji%NULL%3, Takehiko%Sasazuki%NULL%4]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Severe acute respiratory syndrome (SARS) is a public health concern worldwide.
+ By studying the human leukocyte antigen (HLA) types A, B, DR, and DQ alleles in 90 Chinese patients with serologically confirmed SARS infections, we identified a strong association between HLA-B*0703 (OR, 4.08; 95% CI, 2.03–8.18; P = .
+00072 [Bonferroni-corrected P value, Pc&amp;lt;.
+0022]) and -DRB1*0301 (OR, 0.06; 95%, 0.01–0.47; P = .
+00008 [after Bonferroni correction, P&amp;lt;.
+0042]) and the development of SARS.
+ Moreover, the frequency of B*0703 and B60 coinheritance (9.6%; 95% CI, 4.6%–19.0%) in our SARS group was significantly higher (P = 3×10−9) than that expected in the general population (0.4%).
+ These genetic data will critically affect both the study of the pathogenesis of SARS and the design of vaccination programs.
+</t>
+  </si>
+  <si>
+    <t>[Margaret H. L.%Ng%margaretng@cuhk.edu.hk%0, Kin-Mang%Lau%NULL%1, Libby%Li%NULL%1, Suk-Hang%Cheng%NULL%1, Wing Y.%Chan%NULL%1, Pak K.%Hui%NULL%1, Benny%Zee%NULL%1, Chi-Bon%Leung%NULL%1, Joseph J. Y.%Sung%NULL%1]</t>
+  </si>
+  <si>
+    <t>The University Chicago Press</t>
+  </si>
+  <si>
+    <t>[KC Allen%Chan%allen@cuhk.edu.hk%0, Nelson LS%Tang%nelsontang@cuhk.edu.hk%1, David SC%Hui%b200945@mailserv.cuhk.edu.hk%1, Grace TY%Chung%gracechung@cuhk.edu.hk%1, Alan KL%Wu%alanklwu@yahoo.com%1, Stephen SC%Chim%sschim@cuhk.edu.hk%1, Rossa WK%Chiu%rossachiu@cuhk.edu.hk%1, Nelson%Lee%leelsn@yahoo.com%1, KW%Choi%kwchoi12@netvigator.com%1, YM%Sung%mandysung@cuhk.edu.hk%1, Paul KS%Chan%paulkschan@cuhk.edu.hk%1, YK%Tong%yktong@cuhk.edu.hk%1, ST%Lai%laist@ha.org.hk%1, WC%Yu%yuwc@ha.org.hk%1, Owen%Tsang%tyotsang@hotmail.com%1, YM Dennis%Lo%loym@cuhk.edu.hk%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We hypothesized that host antiviral genes induced by type I interferons might affect the natural course of severe acute respiratory syndrome (SARS).
+ We analyzed single nucleotide polymorphisms (SNPs) of 2′,5′-oligoadenylate synthetase 1 (OAS-1), myxovirus resistance-A (MxA), and double-stranded RNA-dependent protein kinase in 44 Vietnamese SARS patients with 103 controls.
+ The G-allele of non-synonymous A/G SNP in exon 3 of OAS-1 gene showed association with SARS (p = 0.0090).
+ The G-allele in exon 3 of OAS-1 and the one in exon 6 were in strong linkage disequilibrium and both of them were associated with SARS infection.
+ The GG genotype and G-allele of G/T SNP at position −88 in the MxA gene promoter were found more frequently in hypoxemic group than in non-hypoxemic group of SARS (p = 0.0195).
+ Our findings suggest that polymorphisms of two IFN-inducible genes OAS-1 and MxA might affect susceptibility to the disease and progression of SARS at each level.
+</t>
+  </si>
+  <si>
+    <t>[Emi%Hamano%NULL%0, Minako%Hijikata%NULL%0, Satoru%Itoyama%NULL%0, Tran%Quy%NULL%0, Nguyen Chi%Phi%NULL%0, Hoang Thuy%Long%NULL%0, Le Dang%Ha%NULL%0, Vo Van%Ban%NULL%0, Ikumi%Matsushita%NULL%0, Hideki%Yanai%NULL%0, Fumiko%Kirikae%NULL%2, Teruo%Kirikae%NULL%0, Tadatoshi%Kuratsuji%NULL%0, Takehiko%Sasazuki%NULL%0, Naoto%Keicho%nkeicho-tky@umin.ac.jp%0]</t>
+  </si>
+  <si>
+    <t>Little is known about the innate immune response to severe acute respiratory syndrome (SARS) coronavirus (CoV) infection.
+ Mannose-binding lectin (MBL), a key molecule in innate immunity, functions as an ante-antibody before the specific antibody response.
+ Here, we describe a case-control study that included 569 patients with SARS and 1188 control subjects and used in vitro assays to investigate the role that MBL plays in SARS-CoV infection.
+ The distribution of MBL gene polymorphisms was significantly different between patients with SARS and control subjects, with a higher frequency of haplotypes associated with low or deficient serum levels of MBL in patients with SARS than in control subjects.
+ Serum levels of MBL were also significantly lower in patients with SARS than in control subjects.
+ There was, however, no association between MBL genotypes, which are associated with low or deficient serum levels of MBL, and mortality related to SARS.
+ MBL could bind SARS-CoV in a dose- and calcium-dependent and mannan-inhibitable fashion in vitro, suggesting that binding is through the carbohydrate recognition domains of MBL.
+ Furthermore, deposition of complement C4 on SARS-CoV was enhanced by MBL.
+ Inhibition of the infectivity of SARS-CoV by MBL in fetal rhesus kidney cells (FRhK-4) was also observed.
+ These results suggest that MBL contributes to the first-line host defense against SARS-CoV and that MBL deficiency is a susceptibility factor for acquisition of SARS</t>
+  </si>
+  <si>
+    <t>[W. K. Eddie%Ip%NULL%0, Kwok Hung%Chan%NULL%1, Helen K. W.%Law%NULL%1, Gloria H. W.%Tso%NULL%1, Eric K. P.%Kong%NULL%1, Wilfred H. S.%Wong%NULL%1, Yuk Fai%To%NULL%1, Raymond W. H.%Yung%NULL%1, Eudora Y.%Chow%NULL%1, Ka Leung%Au%NULL%2, Eric Y. T.%Chan%NULL%2, Wilina%Lim%NULL%3, Jens C.%Jensenius%NULL%1, Malcolm W.%Turner%NULL%1, J. S. Malik%Peiris%NULL%1, Yu Lung%Lau%NULL%3]</t>
+  </si>
+  <si>
+    <t>The University of Chicago Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We analyzed genetic variations of angiotensin‐converting enzyme 2 (ACE2), considering that it might influence patients' susceptibility to severe acute respiratory syndrome‐associated coronavirus (SARS‐CoV) or development of SARS as a functional receptor.
+ By cloning of the full‐length cDNA of the ACE2 gene in the lung, where replication occurs on SARS‐CoV, it was shown that there are different splicing sites.
+ All exons including the new alternative exon, exon‐intron boundaries, and the corresponding 5′‐flanking region of the gene were investigated and 19 single nucleotide polymorphisms (SNPs) were found.
+ Out of these, 13 SNPs including one non‐synonymous substitution and three 3′‐UTR polymorphisms were newly identified.
+ A case control study involving 44 SARS cases, 16 anti‐SARS‐CoV antibody‐positive contacts, 87 antibody‐negative contacts, and 50 non‐contacts in Vietnam, failed to obtain any evidence that the ACE2 gene polymorphisms are involved in the disease process in the population.
+ Nevertheless, identification of new 5′‐untranslated exon and new SNPs is considered helpful in investigating regulation of ACE2 gene expression in the future.
+ © 2005 Wiley‐Liss, Inc.
+</t>
+  </si>
+  <si>
+    <t>[Satoru%Itoyama%NULL%0, Naoto%Keicho%nkeicho-tky@umin.ac.jp%0, Minako%Hijikata%NULL%0, Tran%Quy%NULL%0, Nguyen Chi%Phi%NULL%0, Hoang Thuy%Long%NULL%0, Le Dang%Ha%NULL%0, Vo Van%Ban%NULL%0, Ikumi%Matsushita%NULL%0, Hideki%Yanai%NULL%0, Fumiko%Kirikae%NULL%0, Teruo%Kirikae%NULL%0, Tadatoshi%Kuratsuji%NULL%0, Takehiko%Sasazuki%NULL%0]</t>
+  </si>
+  <si>
+    <t>Wiley Subscription Services, Inc., A Wiley Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polymorphisms of human Fc γ‐receptor IIA (FcγRIIA) and mannose‐binding lectin (MBL) genes have been associated with susceptibility to or severity of some infectious diseases.
+ In order to investigate whether these genetic factors might influence susceptibility to infection with the severe acute respiratory syndrome‐associated coronavirus (SARS‐Cov) as well as the course and severity of the infection, we evaluated polymorphisms of FcγRIIA and MBL genes in DNA samples from a group of approximately 180 people from Hong Kong who were infected with SARS‐Cov.
+ These included 132 patients who had moderate course of SARS infection (home subgroup), 26 patients with a severe course requiring treatment in an intensive care ward (ICU subgroup) and a subgroup of 22 patients who died from SARS (deceased subgroup).
+ A total of 200 normal blood donors from the same region were used as controls.
+ A significant association was found between the FcγRIIA‐R/R131 genotype and a severe course of SARS, with higher frequency of homozygosity for FcγRIIA‐R/R131 in the ICU subgroup of SARS patients when compared with controls (P = 0.03; odds ratio: 3.2; 95% confidence interval: 1.1–9.1).
+ In comparison with controls, a significant difference in linear trend distribution of FcγRIIA genotypes was seen among the severe SARS patients (ICU and deceased subgroups) without co‐morbidity, and the incidence of FcγRIIA‐H/H131 was lower in these patients as well.
+ There were no significant differences in MBL genotypes and allele frequencies among SARS patients and controls.
+ The study reveals that in addition to age and co‐morbidity, FcγRIIA polymorphism of individuals may also influence outcome after infection with the SARS‐Cov.
+</t>
+  </si>
+  <si>
+    <t>[F. F.%Yuan%NULL%0, J.%Tanner%NULL%1, P. K. S.%Chan%NULL%1, S.%Biffin%NULL%1, W. B.%Dyer%NULL%1, A. F.%Geczy%NULL%1, J. W.%Tang%NULL%1, D. S. C.%Hui%NULL%1, J. J. Y.%Sung%NULL%0, J. S.%Sullivan%NULL%1]</t>
+  </si>
+  <si>
+    <t>Blackwell Publishing Ltd/Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BackgroundGenetic determinants of susceptibility to severe acute respiratory syndrome coronavirus (SARS-CoV) infection remain unknown.
+ We assessed whether mannose-binding lectin (MBL) gene polymorphisms were associated with susceptibility to SARS-CoV infection or disease severity in an ethnically homogeneous population born in northern China</t>
+  </si>
+  <si>
+    <t>[Hongxing%Zhang%NULL%0, Gangqiao%Zhou%NULL%2, Lianteng%Zhi%NULL%1, Hao%Yang%NULL%1, Yun%Zhai%NULL%2, Xiaojia%Dong%NULL%1, Xiumei%Zhang%NULL%0, Xue%Gao%NULL%1, Yunping%Zhu%NULL%1, Fuchu%He%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Vera S F%Chan%NULL%0, Kelvin Y K%Chan%NULL%1, Yongxiong%Chen%NULL%1, Leo L M%Poon%NULL%0, Annie N Y%Cheung%NULL%1, Bojian%Zheng%NULL%1, Kwok-Hung%Chan%NULL%0, William%Mak%NULL%1, Hextan Y S%Ngan%NULL%1, Xiaoning%Xu%NULL%1, Gavin%Screaton%NULL%1, Paul K H%Tam%NULL%1, Jonathan M%Austyn%NULL%1, Li-Chong%Chan%NULL%2, Shea-Ping%Yip%NULL%2, Malik%Peiris%NULL%0, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%4, Chen-Lung S%Lin%clin@hkucc.hku.hk%1]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group US</t>
+  </si>
+  <si>
+    <t>[Wai Po% Chong%h9820905@graduate.hku.hk%0, WK Eddie%Ip%WIP@partners.org%1, Gloria Hoi Wan%Tso%h98083405@hkusua.hku.hk%1, Man Wai%Ng%ivy_natsu@yahoo.com.hk%0, Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%2, Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%2, Raymond WH%Yung%rwhyung@ha.org.hk%2, Eudora Y%Chow%chowe@ha.org.hk%2, KL%Au%klau@ha.org.hk%1, Eric YT%Chan%eytchan@ha.org.hk%2, Wilina%Lim%wllim@pacific.net.hk%0, JS Malik%Peiris%malik@hkucc.hku.hk%2, Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Jing%He%jinghe2004@gmail.com%0, Dan%Feng%fddd@263.net%1, Sake J%de Vlas%s.devlas@erasmusmc.nl%1, Hongwei%Wang%whw7809@yahoo.com.cn%0, Arnaud%Fontanet%fontanet@pasteur.fr%1, Panhe%Zhang%juntianz@yahoo.com.cn%1, Sabine%Plancoulaine%plancoulaine@necker.fr%1, Fang%Tang%tf4065@sina.com%0, Lin%Zhan%zhanzhan_30@yahoo.com.cn%1, Hong%Yang%anni_yang@yahoo.com%1, Tianbao%Wang%tianbaowang2005@yahoo.com.cn%1, Jan H%Richardus%j.richardus@erasmusmc.nl%1, J Dik F%Habbema%j.d.f.habbema@erasmusmc.nl%1, Wuchun%Cao%caowc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Background.
+ A high initial or peak severe acute respiratory syndrome (SARS)—associated coronavirus (SARS-CoV) load in nasopharyngeal specimens was shown to be associated with a high mortality rate.
+ Because all infected individuals were devoid of preeexisting protective immunity against SARS-CoV, the biological basis for the variable virus burdens in different patients remains elusive.
+</t>
+  </si>
+  <si>
+    <t>[Wei-Ju%Chen%NULL%0, Jyh-Yuan%Yang%NULL%1, Jih-Hui%Lin%NULL%1, Cathy S. J.%Fann%NULL%1, Valeriy%Osyetrov%NULL%1, Chwan-Chuen%King%NULL%1, Yi-Ming Arthur%Chen%NULL%1, Hsiao-Ling%Chang%NULL%1, Hung-Wei%Kuo%NULL%1, Fong%Liao%NULL%1, Mei-Shang%Ho%homs@ibms.sinica.edu.tw%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Genetic polymorphisms have been demonstrated to be associated with vulnerability to human infection.
+ ICAM3, an intercellular adhesion molecule important for T cell activation, and FCER2 (CD23), an immune response gene, both located on chromosome 19p13.3 were investigated for host genetic susceptibility and association with clinical outcome.
+ A case-control study based on 817 patients with confirmed severe acute respiratory syndrome (SARS), 307 health care worker control subjects, 290 outpatient control subjects, and 309 household control subjects unaffected by SARS from Hong Kong was conducted to test for genetic association.
+ No significant association to susceptibility to SARS-CoV infection was found for the FCER2 and the ICAM3 single nucleotide polymorphisms.
+ However, patients with SARS homozygous for ICAM3 Gly143 showed significant association with higher lactate dehydrogenase levels (P=.
+0067; odds ratio [OR], 4.31 [95% confidence interval [CI], 1.37–13.56]) and lower total white blood cell counts (P=.
+022; OR, 0.30 [95% CI, 0.10–0.89]) on admission.
+ These findings support the role of ICAM3 in the immunopathogenesis of SARS.
+</t>
+  </si>
+  <si>
+    <t>[Kelvin Y. K.%Chan%NULL%0, Johannes C. Y.%Ching%NULL%1, M. S.%Xu%NULL%1, Annie N. Y.%Cheung%NULL%1, Shea-Ping%Yip%NULL%0, Loretta Y. C.%Yam%NULL%1, Sik-To%Lai%NULL%2, Chung-Ming%Chu%NULL%2, Andrew T. Y.%Wong%NULL%1, You-Qiang%Song%NULL%1, Fang-Ping%Huang%NULL%1, Wei%Liu%NULL%0, P. H.%Chung%NULL%1, G. M.%Leung%NULL%1, Eudora Y. D.%Chow%NULL%1, Eric Y. T.%Chan%NULL%0, Jane C. K.%Chan%NULL%1, Hextan%Ngan%NULL%1, Paul%Tam%NULL%1, Li-Chong%Chan%NULL%0, Pak%Sham%NULL%1, Vera S. F.%Chan%NULL%1, Malik%Peiris%NULL%0, Steve C. L.%Lin%NULL%1, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Man Wai%Ng%ivy_natsu@yahoo.com.hk%0, Gangqiao%Zhou%zhougq@chgb.org.cn%0, Wai Po%Chong%h9820905@graduate.hku.hk%1, Loretta Wing Yan%Lee%h0226204@hkusua.hku.hk%1, Helen Ka Wai%Law%hkwlaw@hkucc.hku.hk%0, Hongxing%Zhang%zhanghx08@126.com%0, Wilfred Hing Sang%Wong%whswong@hkucc.hku.hk%0, Susanna Fung Shan%Fok%sfsfok@hkusua.hku.hk%1, Yun%Zhai%zhaiyun077@tom.com%0, Raymond WH%Yung%rwhyung@ha.org.hk%0, Eudora Y%Chow%chowe@ha.org.hk%0, Ka Leung%Au%klau@ha.org.hk%0, Eric YT%Chan%eytchan@ha.org.hk%0, Wilina%Lim%wllim@pacific.net.hk%0, JS Malik%Peiris%malik@hkucc.hku.hk%0, Fuchu%He%hefc@nic.bmi.ac.cn%0, Yu Lung%Lau%lauylung@hkucc.hku.hk%0]</t>
+  </si>
+  <si>
+    <t>[Shixin%Wang%Wshx-001@163.com%0, Maoti%Wei%weimaoti@yahoo.com.cn%1, Yi%Han%halanhan2001sh@163.com%1, Keju%Zhang%sinong77@sina.com%1, Li%He%wujinhl@163.com%0, Zhen%Yang%yzdtchina@yahoo.com.cn%2, Bing%Su%tjsubin553@sina.com%1, Zhilun%Zhang%zzl718@sina.com.cn%1, Yilan%Hu%yougu@yahoo.com.cn%1, Wuli%Hui%huiwuli@163.com%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excessive immune response is believed to play a role in the development of severe acute respiratory syndrome (SARS).
+ Inhomogeneous spread of SARS led one to think of an Asian genetic predisposition and contribution of human leukocyte antigen (HLA) to the disease susceptibility.
+ However, past case-control studies showed inconsistent results.
+ In Viet Nam, of 62 patients with SARS, 44 participated in the present study together with 103 individuals who had contact with SARS patients and 50 without contact history.
+ HLA-DRB1*12 was more frequently shown in SARS patients than in controls (corrected p = 0.042).
+ HLA-DRB1*1202, the predominant allele in the Vietnamese population showed the strongest association with SARS in a dominant model (corrected p = 0.0065 and 0.0052, depending on the controls to be compared).
+ Our results and accumulated data on HLA in the Asian populations would help in the understanding of associations with emerging infectious diseases.
+</t>
+  </si>
+  <si>
+    <t>[Naoto%Keicho%nkeicho-tky@umin.ac.jp%0, Satoru%Itoyama%NULL%0, Koichi%Kashiwase%NULL%1, Nguyen Chi%Phi%NULL%0, Hoang Thuy%Long%NULL%0, Le Dang%Ha%NULL%0, Vo Van%Ban%NULL%0, Bach Khanh%Hoa%NULL%1, Nguyen Thi Le%Hang%NULL%1, Minako%Hijikata%NULL%0, Shinsaku%Sakurada%NULL%1, Masahiro%Satake%NULL%1, Katsushi%Tokunaga%NULL%1, Takehiko%Sasazuki%NULL%0, Tran%Quy%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Society for Histocompatibility and Immunogenetics. Published by Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Yan%Wang%001wangyan@sina.com%0, Jiangwei%Yan%jiangweiyanbj@yahoo.com.cn%1, Yuling%Shi%sane222@163.com%1, Ping%Li%liping@nic.bmi.ac.cn%0, Chuanxuan%Liu%renew7306_cn@sina.com%1, Qingjun%Ma%maqingjun@sina.com%1, Ruifu%Yang%zhangf@big.ac.cn%1, Xiaoyi%Wang%happybettylx@hotmail.com%1, Lina%zhu%luckina@sina.com%1, Xiao%Yang%gaowei@sina.com%1, Cheng%Cao%caoc@nic.bmi.ac.cn%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD209 (DC-SIGN) is an important C-type lectin which acts a receptor of many pathogens.
+ The single nucleotide polymorphism (SNP) −336A&amp;gt;G in the CD209 promoter has been demonstrated to regulate promoter activity and to be associated with several important infectious diseases, such as human immunodeficiency virus–1 (HIV-1), Mycobacterium tuberculosis, and Dengue fever.
+ CD209 facilitates severe acute respiratory syndrome (SARS)–coronavirus spike protein-bearing pseudotype driven infection of permissive cells in vitro.
+ In keeping with previously published findings, our in vitro studies confirmed that this SNP modulates gene promoter activity.
+ Genetic association analysis of this SNP with clinico-pathologic outcomes in 824 serologic confirmed SARS patients showed that the −336AG/GG genotype SARS patients was associated with lower standardized lactate-dehydrogenase (LDH) levels compared with the −336AA patients (p = 0.014, odds ratio = 0.40).
+ High LDH levels are known to be an independent predictor for poor clinical outcome, probably related to tissue destruction from immune hyperactivity.
+ Hence, SARS patients with the CD209 −336 AA genotype carry a 60% chance of having a poorer prognosis.
+ This association is in keeping with the role of CD209 in modulating immune response to viral infection.
+ The relevance of these findings for other infectious diseases and inflammatory conditions would be worth investigating.
+</t>
+  </si>
+  <si>
+    <t>[Kelvin Yuen Kwong%Chan%NULL%0, Mei-Shu%Xu%NULL%2, Johannes Chi Yun%Ching%NULL%1, Thomas Man Kit%So%NULL%1, Sik-To%Lai%NULL%0, Chung-Ming%Chu%NULL%0, Loretta Y.C.%Yam%NULL%1, Andrew T.Y.%Wong%NULL%1, Pui Hong%Chung%NULL%1, Vera Sau Fong%Chan%NULL%1, Chen Lung Steve%Lin%NULL%1, Pak Chung%Sham%NULL%1, Gabriel M.%Leung%NULL%0, Joseph S.M.%Peiris%NULL%1, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myxovirus resistance A (MxA) is an antiviral protein induced by interferon α and β (IFN-α, IFN-β) that can inhibit viral replication.
+ The minor alleles of the -88G&amp;gt;T and -123C&amp;gt;A MxA promoter single-nucleotide polymorphisms (SNPs) are associated with increased promoter activity and altered response to IFN-α and IFN-β treatment.
+ Here, we demonstrate that the 123A minor allele provided stronger binding affinity to nuclear proteins extracted from IFN-β-untreated cells than did the wild-type allele, whereas the -88T allele showed preferential binding after IFN-β stimulation.
+ Endogenous IFN-α and IFN-β induction can be suppressed in severe acute respiratory syndrome (SARS) coronavirus infection.
+ In support of our in vitro findings, a large case-control genetic-association study for SARS coronavirus infection confirmed that the -123A minor-allele carriers were significantly associated with lower risk of SARS coronavirus infection, whereas the -88T minorallele carriers were insignificant after adjustment for confounding effects.
+ This suggests that -123C&amp;gt;A plays a more important role in modulating basal MxA expression, thus contributing more significantly to innate immune response against viral infections that suppress endogenous IFN-α and IFN-β induction such as SARS coronavirus.
+</t>
+  </si>
+  <si>
+    <t>[Johannes Chi-Yun%Ching%NULL%0, Kelvin Yuen Kwong%Chan%NULL%0, Eric Hing Leung%Lee%NULL%1, Mei-Shu%Xu%NULL%0, Campbell Kam Po%Ting%NULL%1, Thomas M. K.%So%NULL%1, Pak C.%Sham%NULL%1, Gabriel M.%Leung%NULL%0, Joseph S. M.%Peiris%NULL%1, Ui-Soon%Khoo%uskhoo@pathology.hku.hk%0]</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +3022,7 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>686</v>
+        <v>749</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -2702,10 +3034,10 @@
         <v>41</v>
       </c>
       <c r="I2" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2722,7 +3054,7 @@
         <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>687</v>
+        <v>751</v>
       </c>
       <c r="F3" t="s">
         <v>44</v>
@@ -2734,10 +3066,10 @@
         <v>45</v>
       </c>
       <c r="I3" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2751,10 +3083,10 @@
         <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>753</v>
       </c>
       <c r="E4" t="s">
-        <v>688</v>
+        <v>754</v>
       </c>
       <c r="F4" t="s">
         <v>48</v>
@@ -2766,10 +3098,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>507</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2783,10 +3115,10 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>756</v>
       </c>
       <c r="E5" t="s">
-        <v>689</v>
+        <v>757</v>
       </c>
       <c r="F5" t="s">
         <v>51</v>
@@ -2798,10 +3130,10 @@
         <v>52</v>
       </c>
       <c r="I5" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -2818,7 +3150,7 @@
         <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>690</v>
+        <v>759</v>
       </c>
       <c r="F6" t="s">
         <v>55</v>
@@ -2830,10 +3162,10 @@
         <v>56</v>
       </c>
       <c r="I6" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2847,10 +3179,10 @@
         <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>760</v>
       </c>
       <c r="E7" t="s">
-        <v>691</v>
+        <v>761</v>
       </c>
       <c r="F7" t="s">
         <v>59</v>
@@ -2862,10 +3194,10 @@
         <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>507</v>
+        <v>43</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>755</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2879,10 +3211,10 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>762</v>
       </c>
       <c r="E8" t="s">
-        <v>692</v>
+        <v>763</v>
       </c>
       <c r="F8" t="s">
         <v>62</v>
@@ -2894,10 +3226,10 @@
         <v>63</v>
       </c>
       <c r="I8" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>764</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2911,10 +3243,10 @@
         <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>765</v>
       </c>
       <c r="E9" t="s">
-        <v>693</v>
+        <v>766</v>
       </c>
       <c r="F9" t="s">
         <v>66</v>
@@ -2926,10 +3258,10 @@
         <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>767</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2943,10 +3275,10 @@
         <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>69</v>
+        <v>768</v>
       </c>
       <c r="E10" t="s">
-        <v>694</v>
+        <v>769</v>
       </c>
       <c r="F10" t="s">
         <v>70</v>
@@ -2958,10 +3290,10 @@
         <v>71</v>
       </c>
       <c r="I10" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2975,10 +3307,10 @@
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>771</v>
       </c>
       <c r="E11" t="s">
-        <v>695</v>
+        <v>772</v>
       </c>
       <c r="F11" t="s">
         <v>74</v>
@@ -2990,10 +3322,10 @@
         <v>75</v>
       </c>
       <c r="I11" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3010,7 +3342,7 @@
         <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>696</v>
+        <v>773</v>
       </c>
       <c r="F12" t="s">
         <v>78</v>
@@ -3022,10 +3354,10 @@
         <v>79</v>
       </c>
       <c r="I12" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3042,7 +3374,7 @@
         <v>81</v>
       </c>
       <c r="E13" t="s">
-        <v>697</v>
+        <v>775</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -3054,10 +3386,10 @@
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>750</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3074,7 +3406,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>698</v>
+        <v>776</v>
       </c>
       <c r="F14" t="s">
         <v>86</v>
@@ -3086,10 +3418,10 @@
         <v>87</v>
       </c>
       <c r="I14" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>750</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3103,10 +3435,10 @@
         <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>777</v>
       </c>
       <c r="E15" t="s">
-        <v>699</v>
+        <v>778</v>
       </c>
       <c r="F15" t="s">
         <v>90</v>
@@ -3118,10 +3450,10 @@
         <v>91</v>
       </c>
       <c r="I15" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3132,28 +3464,28 @@
         <v>38749</v>
       </c>
       <c r="C16" t="s">
-        <v>243</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>396</v>
+        <v>33</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G16" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="H16" t="s">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="I16" t="s">
         <v>43</v>
       </c>
       <c r="J16" t="s">
-        <v>570</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3167,10 +3499,10 @@
         <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>93</v>
+        <v>779</v>
       </c>
       <c r="E17" t="s">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="F17" t="s">
         <v>94</v>
@@ -3182,10 +3514,10 @@
         <v>95</v>
       </c>
       <c r="I17" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>764</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3202,7 +3534,7 @@
         <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>701</v>
+        <v>781</v>
       </c>
       <c r="F18" t="s">
         <v>98</v>
@@ -3214,10 +3546,10 @@
         <v>99</v>
       </c>
       <c r="I18" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3228,28 +3560,28 @@
         <v>39417</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>399</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="H19" t="s">
-        <v>253</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
         <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>570</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3260,28 +3592,28 @@
         <v>39753</v>
       </c>
       <c r="C20" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>400</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="G20" t="s">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="H20" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="I20" t="s">
         <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>575</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3298,7 +3630,7 @@
         <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>702</v>
+        <v>782</v>
       </c>
       <c r="F21" t="s">
         <v>102</v>
@@ -3310,10 +3642,10 @@
         <v>103</v>
       </c>
       <c r="I21" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3327,10 +3659,10 @@
         <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>783</v>
       </c>
       <c r="E22" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="F22" t="s">
         <v>106</v>
@@ -3342,10 +3674,10 @@
         <v>107</v>
       </c>
       <c r="I22" t="s">
-        <v>507</v>
+        <v>43</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>785</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3362,7 +3694,7 @@
         <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>704</v>
+        <v>786</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -3374,10 +3706,10 @@
         <v>111</v>
       </c>
       <c r="I23" t="s">
-        <v>503</v>
+        <v>43</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3391,10 +3723,10 @@
         <v>112</v>
       </c>
       <c r="D24" t="s">
-        <v>113</v>
+        <v>787</v>
       </c>
       <c r="E24" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="F24" t="s">
         <v>114</v>
@@ -3406,10 +3738,10 @@
         <v>115</v>
       </c>
       <c r="I24" t="s">
-        <v>507</v>
+        <v>43</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>785</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3423,10 +3755,10 @@
         <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>789</v>
       </c>
       <c r="E25" t="s">
-        <v>706</v>
+        <v>790</v>
       </c>
       <c r="F25" t="s">
         <v>118</v>
@@ -3438,10 +3770,10 @@
         <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>505</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
